--- a/data/appointments.xlsx
+++ b/data/appointments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1260,10 +1260,8 @@
           <t>10/01/2001</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>9365965715</t>
-        </is>
+      <c r="C13" t="n">
+        <v>9365965715</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,6 +1314,286 @@
       <c r="N13" t="inlineStr">
         <is>
           <t>2025-09-05 00:27:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>01/15/1990</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>555-123-4567</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>john@example.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dr. Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>60</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Blue Cross</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ABC123</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>GRP456</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-09-05 19:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Bookingtest</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01/01/1990</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>555-123-4567</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>booking@example.com</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dr. Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>60</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Blue Cross</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ABC123</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>GRP456</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-09-05 19:28:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Testuser</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>01/01/1990</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>555-123-4567</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>test@example.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Dr. Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>60</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Blue Cross</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ABC123</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>GRP456</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-09-05 19:30:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Integrationtest</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>01/01/1990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>555-999-8888</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>integration@example.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Dr. Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>60</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Blue Cross</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>INT123</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>GRP789</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025-09-05 19:37:42</t>
         </is>
       </c>
     </row>

--- a/data/appointments.xlsx
+++ b/data/appointments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,35 +508,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Janet Moore</t>
+          <t>Angela King</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1977-12-15</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5556825438</v>
+          <t>1965-11-20</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5555795011</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>janet.moore@example.com</t>
+          <t>angela.king@example.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dr. Emily Rodriguez</t>
+          <t>Dr. Jessica Davis</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -549,17 +551,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Kaiser Permanente</t>
+          <t>Aetna</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ID600549</t>
+          <t>ID396041</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>GRP1971</t>
+          <t>GRP6132</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -569,42 +571,44 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-09-04 20:10:02</t>
+          <t>2025-09-06 00:25:55</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brenda Diaz</t>
+          <t>Nicholas Robinson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1989-02-15</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5551637673</v>
+          <t>1963-05-18</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5559649059</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>brenda.diaz@example.com</t>
+          <t>nicholas.robinson@example.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dr. Jessica Davis</t>
+          <t>Dr. Joshua Thomas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -617,17 +621,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>UnitedHealth</t>
+          <t>Medicare</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ID253610</t>
+          <t>ID766955</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>GRP8168</t>
+          <t>GRP1471</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -637,42 +641,44 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-09-04 20:10:02</t>
+          <t>2025-09-06 00:25:55</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Edward White</t>
+          <t>Janet Cruz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1993-03-28</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5557388561</v>
+          <t>1986-03-23</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5556647154</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>edward.white@example.com</t>
+          <t>janet.cruz@example.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dr. Jessica Davis</t>
+          <t>Dr. Kevin Harris</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -690,12 +696,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>ID934782</t>
+          <t>ID587019</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>GRP1730</t>
+          <t>GRP3747</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -705,42 +711,44 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-09-04 20:10:02</t>
+          <t>2025-09-06 00:25:55</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gary Gonzalez</t>
+          <t>Donald Brown</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1968-02-12</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5556244355</v>
+          <t>1989-11-12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5551338749</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>gary.gonzalez@example.com</t>
+          <t>donald.brown@example.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dr. Daniel Garcia</t>
+          <t>Dr. Michelle White</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -753,17 +761,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Molina Healthcare</t>
+          <t>Aetna</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ID777483</t>
+          <t>ID454196</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>GRP8692</t>
+          <t>GRP9018</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -773,37 +781,39 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-09-04 20:10:02</t>
+          <t>2025-09-06 00:25:55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>George Murphy</t>
+          <t>Gary Lewis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2000-11-14</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5553842864</v>
+          <t>1987-05-11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5559401720</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>george.murphy@example.com</t>
+          <t>gary.lewis@example.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dr. Michael Chen</t>
+          <t>Dr. Michelle White</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -812,26 +822,26 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Returning</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Molina Healthcare</t>
+          <t>Blue Cross Blue Shield</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ID279202</t>
+          <t>ID944795</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>GRP4834</t>
+          <t>GRP9387</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -841,42 +851,44 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-09-04 20:10:02</t>
+          <t>2025-09-06 00:25:55</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Paul Nguyen</t>
+          <t>Deborah Nelson</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1998-10-01</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5556017020</v>
+          <t>1978-03-05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5559182104</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>paul.nguyen@example.com</t>
+          <t>deborah.nelson@example.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dr. David Kim</t>
+          <t>Dr. Lisa Thompson</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -894,12 +906,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>ID321334</t>
+          <t>ID439084</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>GRP1315</t>
+          <t>GRP1577</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -909,42 +921,44 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-09-04 20:10:02</t>
+          <t>2025-09-06 00:25:55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jonathan Murphy</t>
+          <t>Ruth Williams</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1983-07-15</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5559056604</v>
+          <t>1991-04-13</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5556506295</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>jonathan.murphy@example.com</t>
+          <t>ruth.williams@example.com</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dr. Kevin Harris</t>
+          <t>Dr. Daniel Garcia</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -962,12 +976,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>ID946666</t>
+          <t>ID506006</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>GRP6626</t>
+          <t>GRP6180</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -977,37 +991,39 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-09-04 20:10:02</t>
+          <t>2025-09-06 00:25:55</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nancy Torres</t>
+          <t>Christopher Garcia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1973-05-24</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>5553711175</v>
+          <t>1977-06-04</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5556059942</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>nancy.torres@example.com</t>
+          <t>christopher.garcia@example.com</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dr. Ashley Anderson</t>
+          <t>Dr. Lisa Thompson</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1016,26 +1032,26 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Returning</t>
+          <t>New</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Medicaid</t>
+          <t>Cigna</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ID899807</t>
+          <t>ID939737</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>GRP7605</t>
+          <t>GRP6625</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1045,42 +1061,44 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-09-04 20:10:02</t>
+          <t>2025-09-06 00:25:55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Carol Moore</t>
+          <t>Amy King</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1995-11-18</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>5555167690</v>
+          <t>1954-09-28</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5559568342</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>carol.moore@example.com</t>
+          <t>amy.king@example.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dr. Matthew Taylor</t>
+          <t>Dr. Daniel Garcia</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1098,12 +1116,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>ID116154</t>
+          <t>ID448199</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>GRP4156</t>
+          <t>GRP8522</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1113,27 +1131,29 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-09-04 20:10:02</t>
+          <t>2025-09-06 00:25:55</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mark Taylor</t>
+          <t>Laura Williams</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1953-08-10</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>5558370951</v>
+          <t>1995-09-19</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5552000572</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>mark.taylor@example.com</t>
+          <t>laura.williams@example.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1143,12 +1163,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1161,17 +1181,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Medicaid</t>
+          <t>Humana</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>ID576833</t>
+          <t>ID959338</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>GRP7834</t>
+          <t>GRP7835</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1181,419 +1201,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-09-04 20:10:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Isha</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>10/01/2001</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>7002477633</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>isha@gmail.com</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Dr. Matthew Taylor</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>60</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>not available</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>dont have</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2025-09-05 00:22:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sudarsana nan</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>10/01/2001</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>9365965715</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>sudarsanagogoi1@gmail.com</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Dr. Daniel Garcia</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>30</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Returning</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Self Pay</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2025-09-05 00:27:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>01/15/1990</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>555-123-4567</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>john@example.com</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Dr. Sarah Johnson</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>60</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Blue Cross</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>ABC123</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>GRP456</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2025-09-05 19:22:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Bookingtest</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>01/01/1990</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>555-123-4567</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>booking@example.com</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Dr. Sarah Johnson</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>60</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Blue Cross</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>ABC123</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>GRP456</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2025-09-05 19:28:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Testuser</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>01/01/1990</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>555-123-4567</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>test@example.com</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Dr. Sarah Johnson</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>60</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Blue Cross</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ABC123</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>GRP456</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2025-09-05 19:30:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Integrationtest</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>01/01/1990</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>555-999-8888</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>integration@example.com</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Dr. Sarah Johnson</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-09-04</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>60</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Blue Cross</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>INT123</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>GRP789</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2025-09-05 19:37:42</t>
+          <t>2025-09-06 00:25:55</t>
         </is>
       </c>
     </row>
